--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3227,28 +3227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1601.390119944915</v>
+        <v>1726.364019908436</v>
       </c>
       <c r="AB2" t="n">
-        <v>2191.092610454614</v>
+        <v>2362.08741384405</v>
       </c>
       <c r="AC2" t="n">
-        <v>1981.977806930618</v>
+        <v>2136.65310627728</v>
       </c>
       <c r="AD2" t="n">
-        <v>1601390.119944915</v>
+        <v>1726364.019908436</v>
       </c>
       <c r="AE2" t="n">
-        <v>2191092.610454614</v>
+        <v>2362087.41384405</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.081005269691777e-07</v>
+        <v>1.366134035719636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.0733024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>1981977.806930618</v>
+        <v>2136653.10627728</v>
       </c>
     </row>
     <row r="3">
@@ -3333,28 +3333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>945.3192934763437</v>
+        <v>1039.049651317571</v>
       </c>
       <c r="AB3" t="n">
-        <v>1293.427561878203</v>
+        <v>1421.673572568118</v>
       </c>
       <c r="AC3" t="n">
-        <v>1169.984650709531</v>
+        <v>1285.991042133607</v>
       </c>
       <c r="AD3" t="n">
-        <v>945319.2934763436</v>
+        <v>1039049.651317571</v>
       </c>
       <c r="AE3" t="n">
-        <v>1293427.561878203</v>
+        <v>1421673.572568118</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.137338338340451e-06</v>
+        <v>1.922726891372226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.81635802469136</v>
       </c>
       <c r="AH3" t="n">
-        <v>1169984.650709531</v>
+        <v>1285991.042133607</v>
       </c>
     </row>
     <row r="4">
@@ -3439,28 +3439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>795.584547233081</v>
+        <v>889.1442233651653</v>
       </c>
       <c r="AB4" t="n">
-        <v>1088.553876237383</v>
+        <v>1216.566352682903</v>
       </c>
       <c r="AC4" t="n">
-        <v>984.6638220842475</v>
+        <v>1100.458967444446</v>
       </c>
       <c r="AD4" t="n">
-        <v>795584.5472330811</v>
+        <v>889144.2233651653</v>
       </c>
       <c r="AE4" t="n">
-        <v>1088553.876237383</v>
+        <v>1216566.352682903</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267373881641658e-06</v>
+        <v>2.142558429192582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.98765432098765</v>
       </c>
       <c r="AH4" t="n">
-        <v>984663.8220842475</v>
+        <v>1100458.967444446</v>
       </c>
     </row>
     <row r="5">
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>735.554830709709</v>
+        <v>818.7001121457633</v>
       </c>
       <c r="AB5" t="n">
-        <v>1006.418569765922</v>
+        <v>1120.181611937666</v>
       </c>
       <c r="AC5" t="n">
-        <v>910.3673939847957</v>
+        <v>1013.273051079101</v>
       </c>
       <c r="AD5" t="n">
-        <v>735554.830709709</v>
+        <v>818700.1121457634</v>
       </c>
       <c r="AE5" t="n">
-        <v>1006418.569765922</v>
+        <v>1120181.611937666</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.334597425836144e-06</v>
+        <v>2.256203166030246e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.18132716049383</v>
       </c>
       <c r="AH5" t="n">
-        <v>910367.3939847958</v>
+        <v>1013273.051079101</v>
       </c>
     </row>
     <row r="6">
@@ -3651,28 +3651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>687.6622543130941</v>
+        <v>770.8927870951691</v>
       </c>
       <c r="AB6" t="n">
-        <v>940.8898338687218</v>
+        <v>1054.769520693116</v>
       </c>
       <c r="AC6" t="n">
-        <v>851.0926286714659</v>
+        <v>954.1037980164839</v>
       </c>
       <c r="AD6" t="n">
-        <v>687662.2543130941</v>
+        <v>770892.7870951691</v>
       </c>
       <c r="AE6" t="n">
-        <v>940889.8338687217</v>
+        <v>1054769.520693115</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.377820064017442e-06</v>
+        <v>2.329273180418837e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.70679012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>851092.6286714659</v>
+        <v>954103.7980164839</v>
       </c>
     </row>
     <row r="7">
@@ -3757,28 +3757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>656.6007189008155</v>
+        <v>729.4168569868607</v>
       </c>
       <c r="AB7" t="n">
-        <v>898.3900707794137</v>
+        <v>998.0203233300317</v>
       </c>
       <c r="AC7" t="n">
-        <v>812.6489833226092</v>
+        <v>902.7706644017341</v>
       </c>
       <c r="AD7" t="n">
-        <v>656600.7189008156</v>
+        <v>729416.8569868607</v>
       </c>
       <c r="AE7" t="n">
-        <v>898390.0707794137</v>
+        <v>998020.3233300317</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.40833325087447e-06</v>
+        <v>2.380857236749059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.38657407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>812648.9833226092</v>
+        <v>902770.664401734</v>
       </c>
     </row>
     <row r="8">
@@ -3863,28 +3863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>628.0232609859057</v>
+        <v>700.8393990719509</v>
       </c>
       <c r="AB8" t="n">
-        <v>859.2891321117701</v>
+        <v>958.919384662388</v>
       </c>
       <c r="AC8" t="n">
-        <v>777.2797833628933</v>
+        <v>867.4014644420182</v>
       </c>
       <c r="AD8" t="n">
-        <v>628023.2609859058</v>
+        <v>700839.3990719509</v>
       </c>
       <c r="AE8" t="n">
-        <v>859289.1321117701</v>
+        <v>958919.384662388</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.431231270615716e-06</v>
+        <v>2.419567475234388e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.15509259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>777279.7833628934</v>
+        <v>867401.4644420182</v>
       </c>
     </row>
     <row r="9">
@@ -3969,28 +3969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>597.8321113843131</v>
+        <v>680.9773033118165</v>
       </c>
       <c r="AB9" t="n">
-        <v>817.9802692873541</v>
+        <v>931.7431889895499</v>
       </c>
       <c r="AC9" t="n">
-        <v>739.9133804290865</v>
+        <v>842.8189267421656</v>
       </c>
       <c r="AD9" t="n">
-        <v>597832.1113843131</v>
+        <v>680977.3033118165</v>
       </c>
       <c r="AE9" t="n">
-        <v>817980.2692873541</v>
+        <v>931743.18898955</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44756449111922e-06</v>
+        <v>2.447179594887914e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.99691358024691</v>
       </c>
       <c r="AH9" t="n">
-        <v>739913.3804290865</v>
+        <v>842818.9267421656</v>
       </c>
     </row>
     <row r="10">
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>591.0939565737895</v>
+        <v>674.2391485012929</v>
       </c>
       <c r="AB10" t="n">
-        <v>808.7608286091855</v>
+        <v>922.5237483113814</v>
       </c>
       <c r="AC10" t="n">
-        <v>731.5738302296762</v>
+        <v>834.4793765427552</v>
       </c>
       <c r="AD10" t="n">
-        <v>591093.9565737895</v>
+        <v>674239.1485012929</v>
       </c>
       <c r="AE10" t="n">
-        <v>808760.8286091855</v>
+        <v>922523.7483113814</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.451923517813082e-06</v>
+        <v>2.454548745792231e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.95447530864198</v>
       </c>
       <c r="AH10" t="n">
-        <v>731573.8302296762</v>
+        <v>834479.3765427552</v>
       </c>
     </row>
     <row r="11">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>593.5165503293183</v>
+        <v>676.6617422568218</v>
       </c>
       <c r="AB11" t="n">
-        <v>812.0755282627936</v>
+        <v>925.8384479649893</v>
       </c>
       <c r="AC11" t="n">
-        <v>734.5721796005539</v>
+        <v>837.4777259136329</v>
       </c>
       <c r="AD11" t="n">
-        <v>593516.5503293183</v>
+        <v>676661.7422568217</v>
       </c>
       <c r="AE11" t="n">
-        <v>812075.5282627936</v>
+        <v>925838.4479649893</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.451240778692356e-06</v>
+        <v>2.453394541433724e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.96219135802469</v>
       </c>
       <c r="AH11" t="n">
-        <v>734572.1796005539</v>
+        <v>837477.7259136329</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1191.622599436522</v>
+        <v>1312.538731853701</v>
       </c>
       <c r="AB2" t="n">
-        <v>1630.430611227885</v>
+        <v>1795.873398044344</v>
       </c>
       <c r="AC2" t="n">
-        <v>1474.82460201603</v>
+        <v>1624.477761459136</v>
       </c>
       <c r="AD2" t="n">
-        <v>1191622.599436522</v>
+        <v>1312538.731853701</v>
       </c>
       <c r="AE2" t="n">
-        <v>1630430.611227885</v>
+        <v>1795873.398044345</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.573408898175803e-07</v>
+        <v>1.65791434408195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.89429012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>1474824.60201603</v>
+        <v>1624477.761459136</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>775.4320724399706</v>
+        <v>866.1618421801403</v>
       </c>
       <c r="AB3" t="n">
-        <v>1060.980371161009</v>
+        <v>1185.120844834452</v>
       </c>
       <c r="AC3" t="n">
-        <v>959.7218936327047</v>
+        <v>1072.014574731004</v>
       </c>
       <c r="AD3" t="n">
-        <v>775432.0724399707</v>
+        <v>866161.8421801403</v>
       </c>
       <c r="AE3" t="n">
-        <v>1060980.371161009</v>
+        <v>1185120.844834452</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262292618694833e-06</v>
+        <v>2.186027005867999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.60493827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>959721.8936327046</v>
+        <v>1072014.574731004</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>672.1164531125645</v>
+        <v>752.6704036628535</v>
       </c>
       <c r="AB4" t="n">
-        <v>919.6193828338119</v>
+        <v>1029.836851766202</v>
       </c>
       <c r="AC4" t="n">
-        <v>831.8521996300625</v>
+        <v>931.5506680187339</v>
       </c>
       <c r="AD4" t="n">
-        <v>672116.4531125645</v>
+        <v>752670.4036628534</v>
       </c>
       <c r="AE4" t="n">
-        <v>919619.3828338119</v>
+        <v>1029836.851766202</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.378394853615676e-06</v>
+        <v>2.387091812252604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.20447530864197</v>
       </c>
       <c r="AH4" t="n">
-        <v>831852.1996300624</v>
+        <v>931550.6680187338</v>
       </c>
     </row>
     <row r="5">
@@ -4796,28 +4796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>613.2186827382274</v>
+        <v>693.8578846345367</v>
       </c>
       <c r="AB5" t="n">
-        <v>839.0328550213995</v>
+        <v>949.3669686064386</v>
       </c>
       <c r="AC5" t="n">
-        <v>758.9567369281646</v>
+        <v>858.7607175675482</v>
       </c>
       <c r="AD5" t="n">
-        <v>613218.6827382273</v>
+        <v>693857.8846345367</v>
       </c>
       <c r="AE5" t="n">
-        <v>839032.8550213996</v>
+        <v>949366.9686064386</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.437722715353421e-06</v>
+        <v>2.48983526970323e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.57947530864197</v>
       </c>
       <c r="AH5" t="n">
-        <v>758956.7369281646</v>
+        <v>858760.7175675483</v>
       </c>
     </row>
     <row r="6">
@@ -4902,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>576.2117548379332</v>
+        <v>646.7604783989335</v>
       </c>
       <c r="AB6" t="n">
-        <v>788.3983436377836</v>
+        <v>884.9262196039665</v>
       </c>
       <c r="AC6" t="n">
-        <v>713.1547122450178</v>
+        <v>800.4701032067129</v>
       </c>
       <c r="AD6" t="n">
-        <v>576211.7548379332</v>
+        <v>646760.4783989335</v>
       </c>
       <c r="AE6" t="n">
-        <v>788398.3436377835</v>
+        <v>884926.2196039665</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.477437611809731e-06</v>
+        <v>2.558613170249392e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.18595679012346</v>
       </c>
       <c r="AH6" t="n">
-        <v>713154.7122450178</v>
+        <v>800470.1032067129</v>
       </c>
     </row>
     <row r="7">
@@ -5008,28 +5008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>540.2866146125461</v>
+        <v>620.840475654284</v>
       </c>
       <c r="AB7" t="n">
-        <v>739.2439818760796</v>
+        <v>849.4613283389206</v>
       </c>
       <c r="AC7" t="n">
-        <v>668.6915737812707</v>
+        <v>768.3899313887155</v>
       </c>
       <c r="AD7" t="n">
-        <v>540286.6146125462</v>
+        <v>620840.475654284</v>
       </c>
       <c r="AE7" t="n">
-        <v>739243.9818760796</v>
+        <v>849461.3283389206</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.497702531615756e-06</v>
+        <v>2.593707776136831e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.99691358024691</v>
       </c>
       <c r="AH7" t="n">
-        <v>668691.5737812707</v>
+        <v>768389.9313887155</v>
       </c>
     </row>
     <row r="8">
@@ -5114,28 +5114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>543.2825279816127</v>
+        <v>623.8363890233505</v>
       </c>
       <c r="AB8" t="n">
-        <v>743.343122718006</v>
+        <v>853.5604691808471</v>
       </c>
       <c r="AC8" t="n">
-        <v>672.399498374424</v>
+        <v>772.0978559818689</v>
       </c>
       <c r="AD8" t="n">
-        <v>543282.5279816127</v>
+        <v>623836.3890233506</v>
       </c>
       <c r="AE8" t="n">
-        <v>743343.122718006</v>
+        <v>853560.4691808472</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.499332417927232e-06</v>
+        <v>2.596530398594266e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.98148148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>672399.4983744239</v>
+        <v>772097.8559818688</v>
       </c>
     </row>
     <row r="9">
@@ -5220,28 +5220,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>545.4556999927266</v>
+        <v>626.0095610344645</v>
       </c>
       <c r="AB9" t="n">
-        <v>746.3165525371949</v>
+        <v>856.5338990000361</v>
       </c>
       <c r="AC9" t="n">
-        <v>675.0891482249044</v>
+        <v>774.7875058323493</v>
       </c>
       <c r="AD9" t="n">
-        <v>545455.6999927267</v>
+        <v>626009.5610344645</v>
       </c>
       <c r="AE9" t="n">
-        <v>746316.5525371949</v>
+        <v>856533.8990000361</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.499006440664937e-06</v>
+        <v>2.595965874102779e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.98148148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>675089.1482249044</v>
+        <v>774787.5058323493</v>
       </c>
     </row>
   </sheetData>
@@ -5517,28 +5517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>552.0326103659116</v>
+        <v>624.8702839216139</v>
       </c>
       <c r="AB2" t="n">
-        <v>755.3153714625942</v>
+        <v>854.975089792875</v>
       </c>
       <c r="AC2" t="n">
-        <v>683.2291325019853</v>
+        <v>773.3774671881173</v>
       </c>
       <c r="AD2" t="n">
-        <v>552032.6103659116</v>
+        <v>624870.2839216139</v>
       </c>
       <c r="AE2" t="n">
-        <v>755315.3714625941</v>
+        <v>854975.089792875</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.432359850117207e-06</v>
+        <v>2.710333065536191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.32716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>683229.1325019853</v>
+        <v>773377.4671881173</v>
       </c>
     </row>
     <row r="3">
@@ -5623,28 +5623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.4744808701309</v>
+        <v>496.1967888131179</v>
       </c>
       <c r="AB3" t="n">
-        <v>591.7306641540516</v>
+        <v>678.9183371114661</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.2567200663914</v>
+        <v>614.1233238854178</v>
       </c>
       <c r="AD3" t="n">
-        <v>432474.4808701309</v>
+        <v>496196.7888131179</v>
       </c>
       <c r="AE3" t="n">
-        <v>591730.6641540516</v>
+        <v>678918.3371114661</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.617020116061127e-06</v>
+        <v>3.059750025692928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.46373456790123</v>
       </c>
       <c r="AH3" t="n">
-        <v>535256.7200663914</v>
+        <v>614123.3238854178</v>
       </c>
     </row>
     <row r="4">
@@ -5729,28 +5729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.353779030361</v>
+        <v>497.076086973348</v>
       </c>
       <c r="AB4" t="n">
-        <v>592.9337586887755</v>
+        <v>680.1214316461901</v>
       </c>
       <c r="AC4" t="n">
-        <v>536.344992947275</v>
+        <v>615.2115967663016</v>
       </c>
       <c r="AD4" t="n">
-        <v>433353.779030361</v>
+        <v>497076.086973348</v>
       </c>
       <c r="AE4" t="n">
-        <v>592933.7586887755</v>
+        <v>680121.4316461901</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.619748189589518e-06</v>
+        <v>3.06491212786202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.44058641975309</v>
       </c>
       <c r="AH4" t="n">
-        <v>536344.9929472751</v>
+        <v>615211.5967663015</v>
       </c>
     </row>
   </sheetData>
@@ -6026,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>746.3483010218395</v>
+        <v>831.732726686571</v>
       </c>
       <c r="AB2" t="n">
-        <v>1021.186672021282</v>
+        <v>1138.013410110774</v>
       </c>
       <c r="AC2" t="n">
-        <v>923.7260492880663</v>
+        <v>1029.403007461654</v>
       </c>
       <c r="AD2" t="n">
-        <v>746348.3010218395</v>
+        <v>831732.726686571</v>
       </c>
       <c r="AE2" t="n">
-        <v>1021186.672021282</v>
+        <v>1138013.410110774</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.242004030542695e-06</v>
+        <v>2.262661611696607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.01697530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>923726.0492880663</v>
+        <v>1029403.007461654</v>
       </c>
     </row>
     <row r="3">
@@ -6132,28 +6132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.0063484486423</v>
+        <v>609.8940538258504</v>
       </c>
       <c r="AB3" t="n">
-        <v>730.6510446448374</v>
+        <v>834.4839510712097</v>
       </c>
       <c r="AC3" t="n">
-        <v>660.9187344191151</v>
+        <v>754.841973986554</v>
       </c>
       <c r="AD3" t="n">
-        <v>534006.3484486423</v>
+        <v>609894.0538258504</v>
       </c>
       <c r="AE3" t="n">
-        <v>730651.0446448374</v>
+        <v>834483.9510712097</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.493768657980745e-06</v>
+        <v>2.72132208596114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.98070987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>660918.7344191151</v>
+        <v>754841.973986554</v>
       </c>
     </row>
     <row r="4">
@@ -6238,28 +6238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.86155512119</v>
+        <v>544.2527192279767</v>
       </c>
       <c r="AB4" t="n">
-        <v>653.8312614807489</v>
+        <v>744.6705811830983</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.4305235429644</v>
+        <v>673.6002660667076</v>
       </c>
       <c r="AD4" t="n">
-        <v>477861.55512119</v>
+        <v>544252.7192279767</v>
       </c>
       <c r="AE4" t="n">
-        <v>653831.2614807489</v>
+        <v>744670.5811830983</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.574964345244802e-06</v>
+        <v>2.869242994500726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.20524691358025</v>
       </c>
       <c r="AH4" t="n">
-        <v>591430.5235429644</v>
+        <v>673600.2660667076</v>
       </c>
     </row>
     <row r="5">
@@ -6344,28 +6344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>475.0428108736164</v>
+        <v>541.433974980403</v>
       </c>
       <c r="AB5" t="n">
-        <v>649.9745312469988</v>
+        <v>740.8138509493483</v>
       </c>
       <c r="AC5" t="n">
-        <v>587.9418742297686</v>
+        <v>670.1116167535117</v>
       </c>
       <c r="AD5" t="n">
-        <v>475042.8108736164</v>
+        <v>541433.9749804031</v>
       </c>
       <c r="AE5" t="n">
-        <v>649974.5312469988</v>
+        <v>740813.8509493483</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.579488104963799e-06</v>
+        <v>2.877484302262217e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>587941.8742297686</v>
+        <v>670111.6167535117</v>
       </c>
     </row>
   </sheetData>
@@ -6641,28 +6641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.9800645097864</v>
+        <v>497.2306720457328</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.212961293286</v>
+        <v>680.332941762039</v>
       </c>
       <c r="AC2" t="n">
-        <v>528.4564962154949</v>
+        <v>615.4029206535502</v>
       </c>
       <c r="AD2" t="n">
-        <v>426980.0645097864</v>
+        <v>497230.6720457328</v>
       </c>
       <c r="AE2" t="n">
-        <v>584212.9612932859</v>
+        <v>680332.941762039</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.591074395711703e-06</v>
+        <v>3.117993170680543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>528456.4962154949</v>
+        <v>615402.9206535502</v>
       </c>
     </row>
     <row r="3">
@@ -6747,28 +6747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.7953861424968</v>
+        <v>471.1312450244637</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.3859291646797</v>
+        <v>644.6225542860819</v>
       </c>
       <c r="AC3" t="n">
-        <v>496.0487457496874</v>
+        <v>583.1006824384548</v>
       </c>
       <c r="AD3" t="n">
-        <v>400795.3861424968</v>
+        <v>471131.2450244637</v>
       </c>
       <c r="AE3" t="n">
-        <v>548385.9291646797</v>
+        <v>644622.5542860819</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.634770700841261e-06</v>
+        <v>3.203623849764527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>496048.7457496874</v>
+        <v>583100.6824384548</v>
       </c>
     </row>
   </sheetData>
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1286.315807185861</v>
+        <v>1408.338944211483</v>
       </c>
       <c r="AB2" t="n">
-        <v>1759.994035640018</v>
+        <v>1926.951474999346</v>
       </c>
       <c r="AC2" t="n">
-        <v>1592.022675045677</v>
+        <v>1743.045930718789</v>
       </c>
       <c r="AD2" t="n">
-        <v>1286315.807185861</v>
+        <v>1408338.944211483</v>
       </c>
       <c r="AE2" t="n">
-        <v>1759994.035640018</v>
+        <v>1926951.474999346</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.171900431739914e-07</v>
+        <v>1.578008232793724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.64660493827161</v>
       </c>
       <c r="AH2" t="n">
-        <v>1592022.675045677</v>
+        <v>1743045.930718789</v>
       </c>
     </row>
     <row r="3">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>815.2084984501703</v>
+        <v>906.7045160057434</v>
       </c>
       <c r="AB3" t="n">
-        <v>1115.404232040231</v>
+        <v>1240.593119779177</v>
       </c>
       <c r="AC3" t="n">
-        <v>1008.951617613982</v>
+        <v>1122.192653610831</v>
       </c>
       <c r="AD3" t="n">
-        <v>815208.4984501703</v>
+        <v>906704.5160057434</v>
       </c>
       <c r="AE3" t="n">
-        <v>1115404.232040231</v>
+        <v>1240593.119779177</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.22844778544513e-06</v>
+        <v>2.113521328994517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.90972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1008951.617613982</v>
+        <v>1122192.653610832</v>
       </c>
     </row>
     <row r="4">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>703.9260937805487</v>
+        <v>785.1611535000853</v>
       </c>
       <c r="AB4" t="n">
-        <v>963.1427365380514</v>
+        <v>1074.292129084221</v>
       </c>
       <c r="AC4" t="n">
-        <v>871.2217455421797</v>
+        <v>971.7631960628954</v>
       </c>
       <c r="AD4" t="n">
-        <v>703926.0937805488</v>
+        <v>785161.1535000853</v>
       </c>
       <c r="AE4" t="n">
-        <v>963142.7365380514</v>
+        <v>1074292.129084221</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348191293283049e-06</v>
+        <v>2.319537783924558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.40895061728395</v>
       </c>
       <c r="AH4" t="n">
-        <v>871221.7455421798</v>
+        <v>971763.1960628955</v>
       </c>
     </row>
     <row r="5">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>642.9206317258813</v>
+        <v>724.2409427914384</v>
       </c>
       <c r="AB5" t="n">
-        <v>879.6723719838169</v>
+        <v>990.9384091826363</v>
       </c>
       <c r="AC5" t="n">
-        <v>795.717675429609</v>
+        <v>896.364638201037</v>
       </c>
       <c r="AD5" t="n">
-        <v>642920.6317258814</v>
+        <v>724240.9427914384</v>
       </c>
       <c r="AE5" t="n">
-        <v>879672.3719838168</v>
+        <v>990938.4091826363</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.409570609351047e-06</v>
+        <v>2.425139743735819e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.73765432098766</v>
       </c>
       <c r="AH5" t="n">
-        <v>795717.675429609</v>
+        <v>896364.638201037</v>
       </c>
     </row>
     <row r="6">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>605.1402138441696</v>
+        <v>676.2849079282615</v>
       </c>
       <c r="AB6" t="n">
-        <v>827.9795374836556</v>
+        <v>925.3228466118964</v>
       </c>
       <c r="AC6" t="n">
-        <v>748.9583325027942</v>
+        <v>837.011332830028</v>
       </c>
       <c r="AD6" t="n">
-        <v>605140.2138441696</v>
+        <v>676284.9079282616</v>
       </c>
       <c r="AE6" t="n">
-        <v>827979.5374836556</v>
+        <v>925322.8466118963</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.451028568449608e-06</v>
+        <v>2.496467383257461e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.31712962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>748958.3325027942</v>
+        <v>837011.332830028</v>
       </c>
     </row>
     <row r="7">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>573.2137125640342</v>
+        <v>644.3584066481262</v>
       </c>
       <c r="AB7" t="n">
-        <v>784.2962899343448</v>
+        <v>881.6395990625851</v>
       </c>
       <c r="AC7" t="n">
-        <v>709.4441527897666</v>
+        <v>797.4971531170004</v>
       </c>
       <c r="AD7" t="n">
-        <v>573213.7125640342</v>
+        <v>644358.4066481262</v>
       </c>
       <c r="AE7" t="n">
-        <v>784296.2899343448</v>
+        <v>881639.5990625852</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.47735706455246e-06</v>
+        <v>2.541765066018608e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.05864197530864</v>
       </c>
       <c r="AH7" t="n">
-        <v>709444.1527897666</v>
+        <v>797497.1531170004</v>
       </c>
     </row>
     <row r="8">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>553.1316003510079</v>
+        <v>634.3665705619934</v>
       </c>
       <c r="AB8" t="n">
-        <v>756.8190580442192</v>
+        <v>867.968328120841</v>
       </c>
       <c r="AC8" t="n">
-        <v>684.5893093466975</v>
+        <v>785.1306490861866</v>
       </c>
       <c r="AD8" t="n">
-        <v>553131.6003510079</v>
+        <v>634366.5705619934</v>
       </c>
       <c r="AE8" t="n">
-        <v>756819.0580442193</v>
+        <v>867968.3281208409</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.486456278952014e-06</v>
+        <v>2.557420093394137e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.97376543209877</v>
       </c>
       <c r="AH8" t="n">
-        <v>684589.3093466975</v>
+        <v>785130.6490861867</v>
       </c>
     </row>
     <row r="9">
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>555.2336263167039</v>
+        <v>636.4685965276893</v>
       </c>
       <c r="AB9" t="n">
-        <v>759.6951427053252</v>
+        <v>870.8444127819467</v>
       </c>
       <c r="AC9" t="n">
-        <v>687.1909045243576</v>
+        <v>787.7322442638467</v>
       </c>
       <c r="AD9" t="n">
-        <v>555233.6263167039</v>
+        <v>636468.5965276894</v>
       </c>
       <c r="AE9" t="n">
-        <v>759695.1427053253</v>
+        <v>870844.4127819467</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.485971705404108e-06</v>
+        <v>2.556586393711417e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.97762345679012</v>
       </c>
       <c r="AH9" t="n">
-        <v>687190.9045243576</v>
+        <v>787732.2442638468</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.773385821397</v>
+        <v>459.542597484175</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.6733861859014</v>
+        <v>628.7664554664121</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.6449086271288</v>
+        <v>568.7578674359597</v>
       </c>
       <c r="AD2" t="n">
-        <v>390773.385821397</v>
+        <v>459542.597484175</v>
       </c>
       <c r="AE2" t="n">
-        <v>534673.3861859015</v>
+        <v>628766.4554664121</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628147720403065e-06</v>
+        <v>3.263883222353621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.27006172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>483644.9086271288</v>
+        <v>568757.8674359597</v>
       </c>
     </row>
     <row r="3">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.8804244573658</v>
+        <v>461.6496361201438</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.5563294036181</v>
+        <v>631.6493986841288</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.2527077903828</v>
+        <v>571.3656665992137</v>
       </c>
       <c r="AD3" t="n">
-        <v>392880.4244573658</v>
+        <v>461649.6361201438</v>
       </c>
       <c r="AE3" t="n">
-        <v>537556.3294036181</v>
+        <v>631649.3986841288</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.631498348923761e-06</v>
+        <v>3.270600094585788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.23533950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>486252.7077903828</v>
+        <v>571365.6665992137</v>
       </c>
     </row>
   </sheetData>
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>948.9472991564735</v>
+        <v>1056.733386634794</v>
       </c>
       <c r="AB2" t="n">
-        <v>1298.391559306071</v>
+        <v>1445.869239380485</v>
       </c>
       <c r="AC2" t="n">
-        <v>1174.474891189898</v>
+        <v>1307.877508464234</v>
       </c>
       <c r="AD2" t="n">
-        <v>948947.2991564735</v>
+        <v>1056733.386634795</v>
       </c>
       <c r="AE2" t="n">
-        <v>1298391.559306071</v>
+        <v>1445869.239380485</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.087898715049841e-06</v>
+        <v>1.926749462734158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.84953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1174474.891189898</v>
+        <v>1307877.508464234</v>
       </c>
     </row>
     <row r="3">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>655.5537814489254</v>
+        <v>734.067795403445</v>
       </c>
       <c r="AB3" t="n">
-        <v>896.957604770117</v>
+        <v>1004.383942456524</v>
       </c>
       <c r="AC3" t="n">
-        <v>811.353229858761</v>
+        <v>908.5269486501893</v>
       </c>
       <c r="AD3" t="n">
-        <v>655553.7814489254</v>
+        <v>734067.7954034449</v>
       </c>
       <c r="AE3" t="n">
-        <v>896957.604770117</v>
+        <v>1004383.942456524</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.366996373564814e-06</v>
+        <v>2.421052154845941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>811353.229858761</v>
+        <v>908526.9486501893</v>
       </c>
     </row>
     <row r="4">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.7048803816659</v>
+        <v>648.1335534816137</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.4953509436775</v>
+        <v>886.8049215078869</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.1014086782084</v>
+        <v>802.1695044376979</v>
       </c>
       <c r="AD4" t="n">
-        <v>569704.8803816659</v>
+        <v>648133.5534816138</v>
       </c>
       <c r="AE4" t="n">
-        <v>779495.3509436775</v>
+        <v>886804.9215078868</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471895894635223e-06</v>
+        <v>2.606837001419844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.67206790123457</v>
       </c>
       <c r="AH4" t="n">
-        <v>705101.4086782084</v>
+        <v>802169.5044376979</v>
       </c>
     </row>
     <row r="5">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.5955580564514</v>
+        <v>595.2100689206354</v>
       </c>
       <c r="AB5" t="n">
-        <v>720.5112742892439</v>
+        <v>814.3926751122008</v>
       </c>
       <c r="AC5" t="n">
-        <v>651.7466895150025</v>
+        <v>736.66818120679</v>
       </c>
       <c r="AD5" t="n">
-        <v>526595.5580564514</v>
+        <v>595210.0689206354</v>
       </c>
       <c r="AE5" t="n">
-        <v>720511.274289244</v>
+        <v>814392.6751122008</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.525465180475341e-06</v>
+        <v>2.701712187210252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.15509259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>651746.6895150024</v>
+        <v>736668.18120679</v>
       </c>
     </row>
     <row r="6">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>513.215971178959</v>
+        <v>581.8304820431431</v>
       </c>
       <c r="AB6" t="n">
-        <v>702.2047332577447</v>
+        <v>796.0861340807015</v>
       </c>
       <c r="AC6" t="n">
-        <v>635.1872990661578</v>
+        <v>720.1087907579453</v>
       </c>
       <c r="AD6" t="n">
-        <v>513215.971178959</v>
+        <v>581830.4820431431</v>
       </c>
       <c r="AE6" t="n">
-        <v>702204.7332577447</v>
+        <v>796086.1340807015</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.538955460399551e-06</v>
+        <v>2.725604475376907e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.03163580246913</v>
       </c>
       <c r="AH6" t="n">
-        <v>635187.2990661578</v>
+        <v>720108.7907579453</v>
       </c>
     </row>
   </sheetData>
@@ -9207,28 +9207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1112.575411402923</v>
+        <v>1222.428927834413</v>
       </c>
       <c r="AB2" t="n">
-        <v>1522.274761244501</v>
+        <v>1672.581188821169</v>
       </c>
       <c r="AC2" t="n">
-        <v>1376.990994557372</v>
+        <v>1512.952387642518</v>
       </c>
       <c r="AD2" t="n">
-        <v>1112575.411402924</v>
+        <v>1222428.927834413</v>
       </c>
       <c r="AE2" t="n">
-        <v>1522274.761244501</v>
+        <v>1672581.188821169</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.991220734977386e-07</v>
+        <v>1.742381653635542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.1766975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>1376990.994557372</v>
+        <v>1512952.387642518</v>
       </c>
     </row>
     <row r="3">
@@ -9313,28 +9313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>738.9824793904103</v>
+        <v>818.9147615949948</v>
       </c>
       <c r="AB3" t="n">
-        <v>1011.108429908045</v>
+        <v>1120.47530478377</v>
       </c>
       <c r="AC3" t="n">
-        <v>914.6096604572143</v>
+        <v>1013.538714292173</v>
       </c>
       <c r="AD3" t="n">
-        <v>738982.4793904102</v>
+        <v>818914.7615949948</v>
       </c>
       <c r="AE3" t="n">
-        <v>1011108.429908045</v>
+        <v>1120475.30478377</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.294849483076693e-06</v>
+        <v>2.258104433259126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.3425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>914609.6604572143</v>
+        <v>1013538.714292173</v>
       </c>
     </row>
     <row r="4">
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>643.051080289261</v>
+        <v>713.0665116545916</v>
       </c>
       <c r="AB4" t="n">
-        <v>879.8508574632176</v>
+        <v>975.6490595200936</v>
       </c>
       <c r="AC4" t="n">
-        <v>795.8791265053615</v>
+        <v>882.5344826115503</v>
       </c>
       <c r="AD4" t="n">
-        <v>643051.0802892609</v>
+        <v>713066.5116545917</v>
       </c>
       <c r="AE4" t="n">
-        <v>879850.8574632176</v>
+        <v>975649.0595200936</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.406734482249739e-06</v>
+        <v>2.453222102107812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.04243827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>795879.1265053614</v>
+        <v>882534.4826115503</v>
       </c>
     </row>
     <row r="5">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>584.020452057342</v>
+        <v>653.9505425681009</v>
       </c>
       <c r="AB5" t="n">
-        <v>799.0825476687867</v>
+        <v>894.7639826034653</v>
       </c>
       <c r="AC5" t="n">
-        <v>722.8192308386767</v>
+        <v>809.3689639129266</v>
       </c>
       <c r="AD5" t="n">
-        <v>584020.452057342</v>
+        <v>653950.5425681008</v>
       </c>
       <c r="AE5" t="n">
-        <v>799082.5476687867</v>
+        <v>894763.9826034652</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.467667930328785e-06</v>
+        <v>2.559484714897464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.41743827160494</v>
       </c>
       <c r="AH5" t="n">
-        <v>722819.2308386767</v>
+        <v>809368.9639129266</v>
       </c>
     </row>
     <row r="6">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>551.8455570058509</v>
+        <v>621.7756475166099</v>
       </c>
       <c r="AB6" t="n">
-        <v>755.0594368031472</v>
+        <v>850.7408717378257</v>
       </c>
       <c r="AC6" t="n">
-        <v>682.9976238872295</v>
+        <v>769.5473569614794</v>
       </c>
       <c r="AD6" t="n">
-        <v>551845.5570058508</v>
+        <v>621775.6475166099</v>
       </c>
       <c r="AE6" t="n">
-        <v>755059.4368031472</v>
+        <v>850740.8717378257</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.50073981979023e-06</v>
+        <v>2.617159202307148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.10108024691358</v>
       </c>
       <c r="AH6" t="n">
-        <v>682997.6238872295</v>
+        <v>769547.3569614794</v>
       </c>
     </row>
     <row r="7">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>530.5761074384236</v>
+        <v>610.4229592798854</v>
       </c>
       <c r="AB7" t="n">
-        <v>725.9576375631032</v>
+        <v>835.2076228470821</v>
       </c>
       <c r="AC7" t="n">
-        <v>656.6732595220234</v>
+        <v>755.4965795438169</v>
       </c>
       <c r="AD7" t="n">
-        <v>530576.1074384236</v>
+        <v>610422.9592798854</v>
       </c>
       <c r="AE7" t="n">
-        <v>725957.6375631031</v>
+        <v>835207.6228470821</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.511654091768385e-06</v>
+        <v>2.636192739611506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.99691358024691</v>
       </c>
       <c r="AH7" t="n">
-        <v>656673.2595220234</v>
+        <v>755496.5795438169</v>
       </c>
     </row>
     <row r="8">
@@ -9843,28 +9843,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>531.2584323781458</v>
+        <v>611.1052842196077</v>
       </c>
       <c r="AB8" t="n">
-        <v>726.8912246476831</v>
+        <v>836.141209931662</v>
       </c>
       <c r="AC8" t="n">
-        <v>657.5177463655486</v>
+        <v>756.3410663873422</v>
       </c>
       <c r="AD8" t="n">
-        <v>531258.4323781459</v>
+        <v>611105.2842196077</v>
       </c>
       <c r="AE8" t="n">
-        <v>726891.2246476831</v>
+        <v>836141.2099316621</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514176988808562e-06</v>
+        <v>2.640592451752211e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.97376543209877</v>
       </c>
       <c r="AH8" t="n">
-        <v>657517.7463655487</v>
+        <v>756341.0663873422</v>
       </c>
     </row>
   </sheetData>
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1486.799525249573</v>
+        <v>1610.763377789745</v>
       </c>
       <c r="AB2" t="n">
-        <v>2034.304703412201</v>
+        <v>2203.917515356862</v>
       </c>
       <c r="AC2" t="n">
-        <v>1840.153517683123</v>
+        <v>1993.578720908863</v>
       </c>
       <c r="AD2" t="n">
-        <v>1486799.525249573</v>
+        <v>1610763.377789745</v>
       </c>
       <c r="AE2" t="n">
-        <v>2034304.703412201</v>
+        <v>2203917.515356862</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.440471044684387e-07</v>
+        <v>1.434824137210755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.19753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>1840153.517683123</v>
+        <v>1993578.720908863</v>
       </c>
     </row>
     <row r="3">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>903.2283015374164</v>
+        <v>996.0945372514684</v>
       </c>
       <c r="AB3" t="n">
-        <v>1235.836809783854</v>
+        <v>1362.90049045699</v>
       </c>
       <c r="AC3" t="n">
-        <v>1117.890279165938</v>
+        <v>1232.827180490626</v>
       </c>
       <c r="AD3" t="n">
-        <v>903228.3015374164</v>
+        <v>996094.5372514684</v>
       </c>
       <c r="AE3" t="n">
-        <v>1235836.809783854</v>
+        <v>1362900.49045699</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167446738261571e-06</v>
+        <v>1.984582080902458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.49614197530865</v>
       </c>
       <c r="AH3" t="n">
-        <v>1117890.279165938</v>
+        <v>1232827.180490626</v>
       </c>
     </row>
     <row r="4">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>766.4526452291906</v>
+        <v>849.1520478199853</v>
       </c>
       <c r="AB4" t="n">
-        <v>1048.694322706849</v>
+        <v>1161.847293771723</v>
       </c>
       <c r="AC4" t="n">
-        <v>948.6084083994328</v>
+        <v>1050.962218717068</v>
       </c>
       <c r="AD4" t="n">
-        <v>766452.6452291906</v>
+        <v>849152.0478199853</v>
       </c>
       <c r="AE4" t="n">
-        <v>1048694.322706849</v>
+        <v>1161847.293771723</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.291904511882073e-06</v>
+        <v>2.196152047446768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.81018518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>948608.4083994329</v>
+        <v>1050962.218717068</v>
       </c>
     </row>
     <row r="5">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>709.0785674461257</v>
+        <v>781.4406342216221</v>
       </c>
       <c r="AB5" t="n">
-        <v>970.1925783183887</v>
+        <v>1069.201550469702</v>
       </c>
       <c r="AC5" t="n">
-        <v>877.5987603175167</v>
+        <v>967.1584551266736</v>
       </c>
       <c r="AD5" t="n">
-        <v>709078.5674461257</v>
+        <v>781440.634221622</v>
       </c>
       <c r="AE5" t="n">
-        <v>970192.5783183887</v>
+        <v>1069201.550469702</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.358130234893239e-06</v>
+        <v>2.308731387364647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.03858024691358</v>
       </c>
       <c r="AH5" t="n">
-        <v>877598.7603175167</v>
+        <v>967158.4551266737</v>
       </c>
     </row>
     <row r="6">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>659.9914753136233</v>
+        <v>742.6055370498464</v>
       </c>
       <c r="AB6" t="n">
-        <v>903.0294532930322</v>
+        <v>1016.065657235708</v>
       </c>
       <c r="AC6" t="n">
-        <v>816.8455896805425</v>
+        <v>919.0937769662381</v>
       </c>
       <c r="AD6" t="n">
-        <v>659991.4753136232</v>
+        <v>742605.5370498464</v>
       </c>
       <c r="AE6" t="n">
-        <v>903029.4532930322</v>
+        <v>1016065.657235709</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.401910149305895e-06</v>
+        <v>2.383154340291974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.5679012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>816845.5896805425</v>
+        <v>919093.7769662382</v>
       </c>
     </row>
     <row r="7">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>628.0887876577409</v>
+        <v>700.3655135786659</v>
       </c>
       <c r="AB7" t="n">
-        <v>859.3787885950077</v>
+        <v>958.2709936241231</v>
       </c>
       <c r="AC7" t="n">
-        <v>777.3608831572044</v>
+        <v>866.8149549344225</v>
       </c>
       <c r="AD7" t="n">
-        <v>628088.7876577409</v>
+        <v>700365.5135786659</v>
       </c>
       <c r="AE7" t="n">
-        <v>859378.7885950077</v>
+        <v>958270.993624123</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.431714371572311e-06</v>
+        <v>2.433819542828956e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.26697530864197</v>
       </c>
       <c r="AH7" t="n">
-        <v>777360.8831572044</v>
+        <v>866814.9549344225</v>
       </c>
     </row>
     <row r="8">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>606.1891821469114</v>
+        <v>678.4659080678363</v>
       </c>
       <c r="AB8" t="n">
-        <v>829.4147821926824</v>
+        <v>928.3069872217977</v>
       </c>
       <c r="AC8" t="n">
-        <v>750.25659947117</v>
+        <v>839.7106712483882</v>
       </c>
       <c r="AD8" t="n">
-        <v>606189.1821469114</v>
+        <v>678465.9080678363</v>
       </c>
       <c r="AE8" t="n">
-        <v>829414.7821926824</v>
+        <v>928306.9872217977</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451301515868179e-06</v>
+        <v>2.467116389966938e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.07407407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>750256.59947117</v>
+        <v>839710.6712483881</v>
       </c>
     </row>
     <row r="9">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>579.1816406829465</v>
+        <v>661.7103615645982</v>
       </c>
       <c r="AB9" t="n">
-        <v>792.4618724730474</v>
+        <v>905.381309293526</v>
       </c>
       <c r="AC9" t="n">
-        <v>716.8304235914425</v>
+        <v>818.9729878451994</v>
       </c>
       <c r="AD9" t="n">
-        <v>579181.6406829465</v>
+        <v>661710.3615645982</v>
       </c>
       <c r="AE9" t="n">
-        <v>792461.8724730473</v>
+        <v>905381.309293526</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.461889161433513e-06</v>
+        <v>2.485114685717198e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.96990740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>716830.4235914425</v>
+        <v>818972.9878451994</v>
       </c>
     </row>
     <row r="10">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>579.2042762099508</v>
+        <v>661.7329970916024</v>
       </c>
       <c r="AB10" t="n">
-        <v>792.4928433997037</v>
+        <v>905.412280220182</v>
       </c>
       <c r="AC10" t="n">
-        <v>716.8584386963265</v>
+        <v>819.0010029500835</v>
       </c>
       <c r="AD10" t="n">
-        <v>579204.2762099508</v>
+        <v>661732.9970916024</v>
       </c>
       <c r="AE10" t="n">
-        <v>792492.8433997037</v>
+        <v>905412.2802201819</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.463953752318754e-06</v>
+        <v>2.488624353388499e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.95061728395062</v>
       </c>
       <c r="AH10" t="n">
-        <v>716858.4386963266</v>
+        <v>819001.0029500835</v>
       </c>
     </row>
   </sheetData>
@@ -11285,28 +11285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>806.8939130763638</v>
+        <v>902.890035833332</v>
       </c>
       <c r="AB2" t="n">
-        <v>1104.027849518171</v>
+        <v>1235.373979724296</v>
       </c>
       <c r="AC2" t="n">
-        <v>998.6609810729743</v>
+        <v>1117.471620957679</v>
       </c>
       <c r="AD2" t="n">
-        <v>806893.9130763637</v>
+        <v>902890.035833332</v>
       </c>
       <c r="AE2" t="n">
-        <v>1104027.849518171</v>
+        <v>1235373.979724296</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.188603676815584e-06</v>
+        <v>2.143333700404197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.58796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>998660.9810729743</v>
+        <v>1117471.620957679</v>
       </c>
     </row>
     <row r="3">
@@ -11391,28 +11391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>581.8572545355328</v>
+        <v>658.5518332241725</v>
       </c>
       <c r="AB3" t="n">
-        <v>796.1227653859083</v>
+        <v>901.0596714737196</v>
       </c>
       <c r="AC3" t="n">
-        <v>720.1419260227952</v>
+        <v>815.0638010734588</v>
       </c>
       <c r="AD3" t="n">
-        <v>581857.2545355328</v>
+        <v>658551.8332241725</v>
       </c>
       <c r="AE3" t="n">
-        <v>796122.7653859083</v>
+        <v>901059.6714737196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.448671581625239e-06</v>
+        <v>2.612297675230035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.25077160493827</v>
       </c>
       <c r="AH3" t="n">
-        <v>720141.9260227953</v>
+        <v>815063.8010734587</v>
       </c>
     </row>
     <row r="4">
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.1987224524433</v>
+        <v>573.3704956345007</v>
       </c>
       <c r="AB4" t="n">
-        <v>692.6034239709611</v>
+        <v>784.5108074481378</v>
       </c>
       <c r="AC4" t="n">
-        <v>626.5023252621826</v>
+        <v>709.6381970531205</v>
       </c>
       <c r="AD4" t="n">
-        <v>506198.7224524433</v>
+        <v>573370.4956345006</v>
       </c>
       <c r="AE4" t="n">
-        <v>692603.4239709611</v>
+        <v>784510.8074481378</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.543455193706273e-06</v>
+        <v>2.78321495740065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.31712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>626502.3252621826</v>
+        <v>709638.1970531205</v>
       </c>
     </row>
     <row r="5">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>489.626783561515</v>
+        <v>556.7985567435722</v>
       </c>
       <c r="AB5" t="n">
-        <v>669.9289660780478</v>
+        <v>761.8363495552244</v>
       </c>
       <c r="AC5" t="n">
-        <v>605.9918858067674</v>
+        <v>689.1277575977052</v>
       </c>
       <c r="AD5" t="n">
-        <v>489626.783561515</v>
+        <v>556798.5567435722</v>
       </c>
       <c r="AE5" t="n">
-        <v>669928.9660780478</v>
+        <v>761836.3495552244</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56464548764584e-06</v>
+        <v>2.821426071843628e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.12037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>605991.8858067674</v>
+        <v>689127.7575977052</v>
       </c>
     </row>
     <row r="6">
@@ -11709,28 +11709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>491.5633942972731</v>
+        <v>558.7351674793306</v>
       </c>
       <c r="AB6" t="n">
-        <v>672.5787223239479</v>
+        <v>764.4861058011246</v>
       </c>
       <c r="AC6" t="n">
-        <v>608.388753035515</v>
+        <v>691.524624826453</v>
       </c>
       <c r="AD6" t="n">
-        <v>491563.3942972731</v>
+        <v>558735.1674793306</v>
       </c>
       <c r="AE6" t="n">
-        <v>672578.7223239479</v>
+        <v>764486.1058011246</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.564130048063526e-06</v>
+        <v>2.820496612303123e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.12808641975309</v>
       </c>
       <c r="AH6" t="n">
-        <v>608388.7530355151</v>
+        <v>691524.6248264529</v>
       </c>
     </row>
   </sheetData>
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.8163793941681</v>
+        <v>691.9965230348827</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.0094293701414</v>
+        <v>946.8201715483139</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.5081785671314</v>
+        <v>856.4569832461988</v>
       </c>
       <c r="AD2" t="n">
-        <v>608816.379394168</v>
+        <v>691996.5230348826</v>
       </c>
       <c r="AE2" t="n">
-        <v>833009.4293701415</v>
+        <v>946820.1715483138</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364485534635875e-06</v>
+        <v>2.54569385973844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.86728395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>753508.1785671314</v>
+        <v>856456.9832461987</v>
       </c>
     </row>
     <row r="3">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.8506984289367</v>
+        <v>533.779121570175</v>
       </c>
       <c r="AB3" t="n">
-        <v>629.1880127714893</v>
+        <v>730.3401428051761</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.1391919034999</v>
+        <v>660.6375046146776</v>
       </c>
       <c r="AD3" t="n">
-        <v>459850.6984289367</v>
+        <v>533779.121570175</v>
       </c>
       <c r="AE3" t="n">
-        <v>629188.0127714893</v>
+        <v>730340.1428051761</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.585158496887453e-06</v>
+        <v>2.957399070790053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.52160493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>569139.1919034999</v>
+        <v>660637.5046146776</v>
       </c>
     </row>
     <row r="4">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.9809252801068</v>
+        <v>512.6577174304201</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.9472654918269</v>
+        <v>701.4409058505764</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.4484387501765</v>
+        <v>634.4963702746912</v>
       </c>
       <c r="AD4" t="n">
-        <v>447980.9252801068</v>
+        <v>512657.7174304201</v>
       </c>
       <c r="AE4" t="n">
-        <v>612947.2654918269</v>
+        <v>701440.9058505765</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.605442034915444e-06</v>
+        <v>2.995241669264654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.33641975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>554448.4387501765</v>
+        <v>634496.3702746913</v>
       </c>
     </row>
   </sheetData>
@@ -21768,28 +21768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.6750937824205</v>
+        <v>554.4096749543621</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.4173574353827</v>
+        <v>758.5677761012006</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.3880517433316</v>
+        <v>686.1711322066616</v>
       </c>
       <c r="AD2" t="n">
-        <v>482675.0937824205</v>
+        <v>554409.6749543621</v>
       </c>
       <c r="AE2" t="n">
-        <v>660417.3574353827</v>
+        <v>758567.7761012006</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.512953472040948e-06</v>
+        <v>2.909465632507854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.73688271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>597388.0517433316</v>
+        <v>686171.1322066616</v>
       </c>
     </row>
     <row r="3">
@@ -21874,28 +21874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.8344049395095</v>
+        <v>488.4836452568795</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.3312222743225</v>
+        <v>668.3648738179428</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.8996108853582</v>
+        <v>604.5770683167495</v>
       </c>
       <c r="AD3" t="n">
-        <v>416834.4049395095</v>
+        <v>488483.6452568794</v>
       </c>
       <c r="AE3" t="n">
-        <v>570331.2222743225</v>
+        <v>668364.8738179428</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.627986318830161e-06</v>
+        <v>3.130678062716479e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.62577160493827</v>
       </c>
       <c r="AH3" t="n">
-        <v>515899.6108853583</v>
+        <v>604577.0683167495</v>
       </c>
     </row>
   </sheetData>
@@ -22171,28 +22171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.9077119546523</v>
+        <v>446.3556309964328</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.4922947897444</v>
+        <v>610.7234661499808</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.0579424449196</v>
+        <v>552.4368756963942</v>
       </c>
       <c r="AD2" t="n">
-        <v>370907.7119546523</v>
+        <v>446355.6309964327</v>
       </c>
       <c r="AE2" t="n">
-        <v>507492.2947897444</v>
+        <v>610723.4661499808</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.602731075537394e-06</v>
+        <v>3.305792028730408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.94521604938272</v>
       </c>
       <c r="AH2" t="n">
-        <v>459057.9424449196</v>
+        <v>552436.8756963941</v>
       </c>
     </row>
   </sheetData>
@@ -22468,28 +22468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1028.61756644111</v>
+        <v>1137.5447112586</v>
       </c>
       <c r="AB2" t="n">
-        <v>1407.39993380904</v>
+        <v>1556.438858874802</v>
       </c>
       <c r="AC2" t="n">
-        <v>1273.079659424518</v>
+        <v>1407.894518659449</v>
       </c>
       <c r="AD2" t="n">
-        <v>1028617.56644111</v>
+        <v>1137544.7112586</v>
       </c>
       <c r="AE2" t="n">
-        <v>1407399.933809041</v>
+        <v>1556438.858874802</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042442834656133e-06</v>
+        <v>1.831530938439675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.50154320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>1273079.659424518</v>
+        <v>1407894.518659449</v>
       </c>
     </row>
     <row r="3">
@@ -22574,28 +22574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.7176782750849</v>
+        <v>779.9142346905634</v>
       </c>
       <c r="AB3" t="n">
-        <v>958.7528408981732</v>
+        <v>1067.113063291313</v>
       </c>
       <c r="AC3" t="n">
-        <v>867.2508153809141</v>
+        <v>965.2692902333797</v>
       </c>
       <c r="AD3" t="n">
-        <v>700717.6782750849</v>
+        <v>779914.2346905634</v>
       </c>
       <c r="AE3" t="n">
-        <v>958752.8408981732</v>
+        <v>1067113.063291312</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.332204164593229e-06</v>
+        <v>2.340630164699196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>867250.8153809141</v>
+        <v>965269.2902333797</v>
       </c>
     </row>
     <row r="4">
@@ -22680,28 +22680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>601.0490009809524</v>
+        <v>680.24546788788</v>
       </c>
       <c r="AB4" t="n">
-        <v>822.3817595526288</v>
+        <v>930.7418594762196</v>
       </c>
       <c r="AC4" t="n">
-        <v>743.8947986409739</v>
+        <v>841.9131627122126</v>
       </c>
       <c r="AD4" t="n">
-        <v>601049.0009809524</v>
+        <v>680245.4678878799</v>
       </c>
       <c r="AE4" t="n">
-        <v>822381.7595526287</v>
+        <v>930741.8594762196</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.439002070178915e-06</v>
+        <v>2.528269871873419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>743894.798640974</v>
+        <v>841913.1627122127</v>
       </c>
     </row>
     <row r="5">
@@ -22786,28 +22786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>553.7300824661561</v>
+        <v>623.0164129114472</v>
       </c>
       <c r="AB5" t="n">
-        <v>757.6379276773324</v>
+        <v>852.4385416897481</v>
       </c>
       <c r="AC5" t="n">
-        <v>685.3300272113171</v>
+        <v>771.0830036758853</v>
       </c>
       <c r="AD5" t="n">
-        <v>553730.0824661561</v>
+        <v>623016.4129114472</v>
       </c>
       <c r="AE5" t="n">
-        <v>757637.9276773324</v>
+        <v>852438.5416897482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.497275616172765e-06</v>
+        <v>2.630654193422839e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.27469135802469</v>
       </c>
       <c r="AH5" t="n">
-        <v>685330.0272113171</v>
+        <v>771083.0036758853</v>
       </c>
     </row>
     <row r="6">
@@ -22892,28 +22892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>526.1824044573966</v>
+        <v>595.4687349026877</v>
       </c>
       <c r="AB6" t="n">
-        <v>719.9459793079669</v>
+        <v>814.7465933203824</v>
       </c>
       <c r="AC6" t="n">
-        <v>651.2353454933419</v>
+        <v>736.9883219579101</v>
       </c>
       <c r="AD6" t="n">
-        <v>526182.4044573966</v>
+        <v>595468.7349026877</v>
       </c>
       <c r="AE6" t="n">
-        <v>719945.9793079669</v>
+        <v>814746.5933203824</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524141271882857e-06</v>
+        <v>2.67785609071511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.02006172839506</v>
       </c>
       <c r="AH6" t="n">
-        <v>651235.3454933419</v>
+        <v>736988.3219579101</v>
       </c>
     </row>
     <row r="7">
@@ -22998,28 +22998,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>526.3317667508421</v>
+        <v>595.6180971961332</v>
       </c>
       <c r="AB7" t="n">
-        <v>720.1503433872583</v>
+        <v>814.9509573996741</v>
       </c>
       <c r="AC7" t="n">
-        <v>651.4202053517326</v>
+        <v>737.1731818163008</v>
       </c>
       <c r="AD7" t="n">
-        <v>526331.7667508421</v>
+        <v>595618.0971961332</v>
       </c>
       <c r="AE7" t="n">
-        <v>720150.3433872584</v>
+        <v>814950.9573996741</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526190816751462e-06</v>
+        <v>2.681457060199262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.00077160493827</v>
       </c>
       <c r="AH7" t="n">
-        <v>651420.2053517327</v>
+        <v>737173.1818163008</v>
       </c>
     </row>
   </sheetData>
@@ -23295,28 +23295,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1383.471983164919</v>
+        <v>1506.396272233313</v>
       </c>
       <c r="AB2" t="n">
-        <v>1892.927401842542</v>
+        <v>2061.117837182814</v>
       </c>
       <c r="AC2" t="n">
-        <v>1712.269067350983</v>
+        <v>1864.407643599139</v>
       </c>
       <c r="AD2" t="n">
-        <v>1383471.983164919</v>
+        <v>1506396.272233313</v>
       </c>
       <c r="AE2" t="n">
-        <v>1892927.401842542</v>
+        <v>2061117.837182814</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.800522899122918e-07</v>
+        <v>1.504791340614647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.39891975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>1712269.067350983</v>
+        <v>1864407.643599139</v>
       </c>
     </row>
     <row r="3">
@@ -23401,28 +23401,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>862.8147202600054</v>
+        <v>954.9652890111532</v>
       </c>
       <c r="AB3" t="n">
-        <v>1180.541164958726</v>
+        <v>1306.625638520219</v>
       </c>
       <c r="AC3" t="n">
-        <v>1067.871973074996</v>
+        <v>1181.92312144045</v>
       </c>
       <c r="AD3" t="n">
-        <v>862814.7202600054</v>
+        <v>954965.2890111533</v>
       </c>
       <c r="AE3" t="n">
-        <v>1180541.164958726</v>
+        <v>1306625.638520219</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.198028361423636e-06</v>
+        <v>2.048494986883916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.19135802469136</v>
       </c>
       <c r="AH3" t="n">
-        <v>1067871.973074996</v>
+        <v>1181923.12144045</v>
       </c>
     </row>
     <row r="4">
@@ -23507,28 +23507,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>735.9842376653708</v>
+        <v>818.0474918446953</v>
       </c>
       <c r="AB4" t="n">
-        <v>1007.006103306756</v>
+        <v>1119.288668050169</v>
       </c>
       <c r="AC4" t="n">
-        <v>910.8988541491013</v>
+        <v>1012.465328502972</v>
       </c>
       <c r="AD4" t="n">
-        <v>735984.2376653708</v>
+        <v>818047.4918446953</v>
       </c>
       <c r="AE4" t="n">
-        <v>1007006.103306756</v>
+        <v>1119288.668050169</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.318610524516489e-06</v>
+        <v>2.254677047807583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.61728395061728</v>
       </c>
       <c r="AH4" t="n">
-        <v>910898.8541491013</v>
+        <v>1012465.328502972</v>
       </c>
     </row>
     <row r="5">
@@ -23613,28 +23613,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>668.2015652249862</v>
+        <v>750.1794785497389</v>
       </c>
       <c r="AB5" t="n">
-        <v>914.262860513363</v>
+        <v>1026.428658134578</v>
       </c>
       <c r="AC5" t="n">
-        <v>827.0068962819507</v>
+        <v>928.4677476038828</v>
       </c>
       <c r="AD5" t="n">
-        <v>668201.5652249862</v>
+        <v>750179.4785497389</v>
       </c>
       <c r="AE5" t="n">
-        <v>914262.8605133629</v>
+        <v>1026428.658134578</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386828321963441e-06</v>
+        <v>2.371321879087107e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>827006.8962819508</v>
+        <v>928467.7476038828</v>
       </c>
     </row>
     <row r="6">
@@ -23719,28 +23719,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>632.613790067404</v>
+        <v>704.3338861282924</v>
       </c>
       <c r="AB6" t="n">
-        <v>865.5700965209257</v>
+        <v>963.7006960187626</v>
       </c>
       <c r="AC6" t="n">
-        <v>782.9613013442283</v>
+        <v>871.7264541531531</v>
       </c>
       <c r="AD6" t="n">
-        <v>632613.790067404</v>
+        <v>704333.8861282924</v>
       </c>
       <c r="AE6" t="n">
-        <v>865570.0965209258</v>
+        <v>963700.6960187627</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425901426604419e-06</v>
+        <v>2.438132533622797e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>782961.3013442283</v>
+        <v>871726.4541531531</v>
       </c>
     </row>
     <row r="7">
@@ -23825,28 +23825,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>603.793909649069</v>
+        <v>675.5140057099572</v>
       </c>
       <c r="AB7" t="n">
-        <v>826.1374646891696</v>
+        <v>924.2680641870065</v>
       </c>
       <c r="AC7" t="n">
-        <v>747.2920645504486</v>
+        <v>836.0572173593733</v>
       </c>
       <c r="AD7" t="n">
-        <v>603793.909649069</v>
+        <v>675514.0057099572</v>
       </c>
       <c r="AE7" t="n">
-        <v>826137.4646891697</v>
+        <v>924268.0641870066</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.454138683920098e-06</v>
+        <v>2.486415096805011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.16280864197531</v>
       </c>
       <c r="AH7" t="n">
-        <v>747292.0645504486</v>
+        <v>836057.2173593733</v>
       </c>
     </row>
     <row r="8">
@@ -23931,28 +23931,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>579.9167564974292</v>
+        <v>651.6368525583176</v>
       </c>
       <c r="AB8" t="n">
-        <v>793.4676903614436</v>
+        <v>891.5982898592804</v>
       </c>
       <c r="AC8" t="n">
-        <v>717.7402476322444</v>
+        <v>806.5054004411691</v>
       </c>
       <c r="AD8" t="n">
-        <v>579916.7564974292</v>
+        <v>651636.8525583176</v>
       </c>
       <c r="AE8" t="n">
-        <v>793467.6903614436</v>
+        <v>891598.2898592803</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.470045494279403e-06</v>
+        <v>2.513613969826371e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.00848765432099</v>
       </c>
       <c r="AH8" t="n">
-        <v>717740.2476322444</v>
+        <v>806505.400441169</v>
       </c>
     </row>
     <row r="9">
@@ -24037,28 +24037,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>566.9501410521123</v>
+        <v>648.8427135222935</v>
       </c>
       <c r="AB9" t="n">
-        <v>775.7261950624605</v>
+        <v>887.7752255614778</v>
       </c>
       <c r="AC9" t="n">
-        <v>701.6919757442512</v>
+        <v>803.0472040342444</v>
       </c>
       <c r="AD9" t="n">
-        <v>566950.1410521122</v>
+        <v>648842.7135222935</v>
       </c>
       <c r="AE9" t="n">
-        <v>775726.1950624605</v>
+        <v>887775.2255614778</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.474636050289135e-06</v>
+        <v>2.521463309020454e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.96604938271605</v>
       </c>
       <c r="AH9" t="n">
-        <v>701691.9757442512</v>
+        <v>803047.2040342444</v>
       </c>
     </row>
   </sheetData>
@@ -24334,28 +24334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.5042332167573</v>
+        <v>437.5749972168904</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.7307726790125</v>
+        <v>598.7094156385881</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.1326077075626</v>
+        <v>541.569429303983</v>
       </c>
       <c r="AD2" t="n">
-        <v>364504.2332167573</v>
+        <v>437574.9972168904</v>
       </c>
       <c r="AE2" t="n">
-        <v>498730.7726790125</v>
+        <v>598709.4156385881</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.516556351203001e-06</v>
+        <v>3.250678772017599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.44984567901234</v>
       </c>
       <c r="AH2" t="n">
-        <v>451132.6077075626</v>
+        <v>541569.429303983</v>
       </c>
     </row>
   </sheetData>
@@ -24631,28 +24631,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>677.509486836844</v>
+        <v>761.7430904119665</v>
       </c>
       <c r="AB2" t="n">
-        <v>926.9983694992274</v>
+        <v>1042.250502035029</v>
       </c>
       <c r="AC2" t="n">
-        <v>838.5269461646034</v>
+        <v>942.7795769285716</v>
       </c>
       <c r="AD2" t="n">
-        <v>677509.486836844</v>
+        <v>761743.0904119664</v>
       </c>
       <c r="AE2" t="n">
-        <v>926998.3694992274</v>
+        <v>1042250.502035029</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.29991822341789e-06</v>
+        <v>2.395011627799745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.44598765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>838526.9461646033</v>
+        <v>942779.5769285716</v>
       </c>
     </row>
     <row r="3">
@@ -24737,28 +24737,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.8837661025475</v>
+        <v>570.824377048611</v>
       </c>
       <c r="AB3" t="n">
-        <v>678.4900456292764</v>
+        <v>781.0270956720993</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.7359079411773</v>
+        <v>706.4869658395669</v>
       </c>
       <c r="AD3" t="n">
-        <v>495883.7661025475</v>
+        <v>570824.3770486111</v>
       </c>
       <c r="AE3" t="n">
-        <v>678490.0456292764</v>
+        <v>781027.0956720994</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539361373019059e-06</v>
+        <v>2.836169476932721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.7337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>613735.9079411773</v>
+        <v>706486.9658395669</v>
       </c>
     </row>
     <row r="4">
@@ -24843,28 +24843,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.8773874789606</v>
+        <v>525.4398439584959</v>
       </c>
       <c r="AB4" t="n">
-        <v>629.2245299071699</v>
+        <v>718.9299752739136</v>
       </c>
       <c r="AC4" t="n">
-        <v>569.1722238950031</v>
+        <v>650.3163074583282</v>
       </c>
       <c r="AD4" t="n">
-        <v>459877.3874789606</v>
+        <v>525439.8439584959</v>
       </c>
       <c r="AE4" t="n">
-        <v>629224.5299071699</v>
+        <v>718929.9752739136</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.595033521968803e-06</v>
+        <v>2.938741655456887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.22067901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>569172.2238950031</v>
+        <v>650316.3074583282</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>882.6316275782317</v>
+        <v>979.5986777866634</v>
       </c>
       <c r="AB2" t="n">
-        <v>1207.655531811772</v>
+        <v>1340.330127791286</v>
       </c>
       <c r="AC2" t="n">
-        <v>1092.39858281084</v>
+        <v>1212.410901560034</v>
       </c>
       <c r="AD2" t="n">
-        <v>882631.6275782317</v>
+        <v>979598.6777866634</v>
       </c>
       <c r="AE2" t="n">
-        <v>1207655.531811772</v>
+        <v>1340330.127791286</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.135682102483713e-06</v>
+        <v>2.028813195960035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.2283950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>1092398.58281084</v>
+        <v>1212410.901560034</v>
       </c>
     </row>
     <row r="3">
@@ -25246,28 +25246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>617.7989354303288</v>
+        <v>695.5090493575478</v>
       </c>
       <c r="AB3" t="n">
-        <v>845.2997588212208</v>
+        <v>951.6261650247089</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.6255362249854</v>
+        <v>860.804299450461</v>
       </c>
       <c r="AD3" t="n">
-        <v>617798.9354303288</v>
+        <v>695509.0493575479</v>
       </c>
       <c r="AE3" t="n">
-        <v>845299.7588212208</v>
+        <v>951626.165024709</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407419444822328e-06</v>
+        <v>2.514252127123958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.51697530864197</v>
       </c>
       <c r="AH3" t="n">
-        <v>764625.5362249854</v>
+        <v>860804.2994504611</v>
       </c>
     </row>
     <row r="4">
@@ -25352,28 +25352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>537.9531570228904</v>
+        <v>605.8642553631864</v>
       </c>
       <c r="AB4" t="n">
-        <v>736.0512422570291</v>
+        <v>828.970203032432</v>
       </c>
       <c r="AC4" t="n">
-        <v>665.8035447504243</v>
+        <v>749.8544503220032</v>
       </c>
       <c r="AD4" t="n">
-        <v>537953.1570228904</v>
+        <v>605864.2553631865</v>
       </c>
       <c r="AE4" t="n">
-        <v>736051.2422570292</v>
+        <v>828970.203032432</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.507035716956459e-06</v>
+        <v>2.692209327467326e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.49074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>665803.5447504243</v>
+        <v>749854.4503220032</v>
       </c>
     </row>
     <row r="5">
@@ -25458,28 +25458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>503.0394876044406</v>
+        <v>570.9505859447369</v>
       </c>
       <c r="AB5" t="n">
-        <v>688.2808194763193</v>
+        <v>781.1997802517221</v>
       </c>
       <c r="AC5" t="n">
-        <v>622.5922640736958</v>
+        <v>706.6431696452747</v>
       </c>
       <c r="AD5" t="n">
-        <v>503039.4876044407</v>
+        <v>570950.5859447368</v>
       </c>
       <c r="AE5" t="n">
-        <v>688280.8194763192</v>
+        <v>781199.7802517221</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.549655633386573e-06</v>
+        <v>2.768346697841505e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.08950617283951</v>
       </c>
       <c r="AH5" t="n">
-        <v>622592.2640736958</v>
+        <v>706643.1696452748</v>
       </c>
     </row>
     <row r="6">
@@ -25564,28 +25564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>500.9441375733799</v>
+        <v>568.855235913676</v>
       </c>
       <c r="AB6" t="n">
-        <v>685.4138691235026</v>
+        <v>778.3328298989055</v>
       </c>
       <c r="AC6" t="n">
-        <v>619.9989314387619</v>
+        <v>704.0498370103409</v>
       </c>
       <c r="AD6" t="n">
-        <v>500944.1375733799</v>
+        <v>568855.235913676</v>
       </c>
       <c r="AE6" t="n">
-        <v>685413.8691235026</v>
+        <v>778332.8298989055</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.553730844519333e-06</v>
+        <v>2.775626765128279e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.05478395061728</v>
       </c>
       <c r="AH6" t="n">
-        <v>619998.9314387619</v>
+        <v>704049.8370103409</v>
       </c>
     </row>
   </sheetData>
